--- a/simulations/raw_inclusion_exclusion/Wassenaar_2017 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Wassenaar_2017 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.7797339593114241</v>
+        <v>0.7892540427751695</v>
       </c>
       <c r="I3">
-        <v>0.03057960699882097</v>
+        <v>0.02912519506405969</v>
       </c>
       <c r="J3">
         <v>0.7927927927927928</v>
       </c>
       <c r="K3">
-        <v>287.0900900900901</v>
+        <v>276.0990990990991</v>
       </c>
       <c r="L3">
         <v>11</v>
@@ -755,34 +755,34 @@
         <v>99</v>
       </c>
       <c r="Q3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S3">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="T3">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="U3">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="V3">
-        <v>7545</v>
+        <v>7553</v>
       </c>
       <c r="W3">
-        <v>7537</v>
+        <v>7543</v>
       </c>
       <c r="X3">
-        <v>7503</v>
+        <v>7521</v>
       </c>
       <c r="Y3">
-        <v>7345</v>
+        <v>7319</v>
       </c>
       <c r="Z3">
-        <v>6946</v>
+        <v>6890</v>
       </c>
       <c r="AA3">
         <v>100</v>
@@ -800,19 +800,19 @@
         <v>12</v>
       </c>
       <c r="AF3">
-        <v>0.998412</v>
+        <v>0.999471</v>
       </c>
       <c r="AG3">
-        <v>0.997353</v>
+        <v>0.998147</v>
       </c>
       <c r="AH3">
-        <v>0.992854</v>
+        <v>0.995236</v>
       </c>
       <c r="AI3">
-        <v>0.971947</v>
+        <v>0.968506</v>
       </c>
       <c r="AJ3">
-        <v>0.919148</v>
+        <v>0.911737</v>
       </c>
     </row>
   </sheetData>
